--- a/data/trans_dic/P42C_R-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/P42C_R-Estudios-trans_dic.xlsx
@@ -567,7 +567,7 @@
       </c>
       <c r="D2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="E2" s="3" t="inlineStr">
@@ -582,7 +582,7 @@
       </c>
       <c r="G2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="H2" s="3" t="inlineStr">
@@ -597,7 +597,7 @@
       </c>
       <c r="J2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="K2" s="3" t="inlineStr">
@@ -700,12 +700,12 @@
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>10,64; 15,11</t>
+          <t>10,65; 14,79</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>2,39; 5,47</t>
+          <t>2,25; 5,33</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
@@ -715,12 +715,12 @@
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>10,64; 15,11</t>
+          <t>10,65; 14,79</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>2,39; 5,47</t>
+          <t>2,25; 5,33</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
@@ -810,12 +810,12 @@
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>22,8; 27,8</t>
+          <t>22,92; 28,03</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>12,37; 16,23</t>
+          <t>12,7; 16,16</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
@@ -825,12 +825,12 @@
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>22,8; 27,8</t>
+          <t>22,92; 28,03</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>12,37; 16,23</t>
+          <t>12,7; 16,16</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
@@ -920,12 +920,12 @@
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>40,48; 50,7</t>
+          <t>40,26; 51,34</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>32,18; 40,86</t>
+          <t>32,1; 41,08</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
@@ -935,12 +935,12 @@
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>40,48; 50,7</t>
+          <t>40,26; 51,34</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>32,18; 40,86</t>
+          <t>32,1; 41,08</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
@@ -1030,12 +1030,12 @@
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>22,2; 25,58</t>
+          <t>22,17; 25,55</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>14,03; 16,85</t>
+          <t>14,15; 16,93</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
@@ -1045,12 +1045,12 @@
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>22,2; 25,58</t>
+          <t>22,17; 25,55</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>14,03; 16,85</t>
+          <t>14,15; 16,93</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">

--- a/data/trans_dic/P42C_R-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/P42C_R-Estudios-trans_dic.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -700,32 +700,32 @@
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>10,65; 14,79</t>
+          <t>10,62; 15,08</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>2,25; 5,33</t>
+          <t>2,31; 5,4</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>4,55; 8,69</t>
+          <t>4,59; 8,22</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>10,65; 14,79</t>
+          <t>10,62; 15,08</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>2,25; 5,33</t>
+          <t>2,31; 5,4</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>4,55; 8,69</t>
+          <t>4,59; 8,22</t>
         </is>
       </c>
     </row>
@@ -810,32 +810,32 @@
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>22,92; 28,03</t>
+          <t>23,12; 28,04</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>12,7; 16,16</t>
+          <t>12,57; 16,14</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>19,93; 24,5</t>
+          <t>19,91; 24,45</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>22,92; 28,03</t>
+          <t>23,12; 28,04</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>12,7; 16,16</t>
+          <t>12,57; 16,14</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>19,93; 24,5</t>
+          <t>19,91; 24,45</t>
         </is>
       </c>
     </row>
@@ -920,32 +920,32 @@
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>40,26; 51,34</t>
+          <t>40,68; 50,72</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>32,1; 41,08</t>
+          <t>32,29; 41,41</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>44,21; 52,96</t>
+          <t>44,34; 52,92</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>40,26; 51,34</t>
+          <t>40,68; 50,72</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>32,1; 41,08</t>
+          <t>32,29; 41,41</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>44,21; 52,96</t>
+          <t>44,34; 52,92</t>
         </is>
       </c>
     </row>
@@ -1030,32 +1030,32 @@
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>22,17; 25,55</t>
+          <t>22,35; 25,77</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>14,15; 16,93</t>
+          <t>14,14; 16,91</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>22,28; 25,56</t>
+          <t>22,16; 25,57</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>22,17; 25,55</t>
+          <t>22,35; 25,77</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>14,15; 16,93</t>
+          <t>14,14; 16,91</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>22,28; 25,56</t>
+          <t>22,16; 25,57</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/P42C_R-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/P42C_R-Estudios-trans_dic.xlsx
@@ -657,7 +657,7 @@
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>6,13%</t>
+          <t>6,26%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
@@ -672,7 +672,7 @@
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>6,13%</t>
+          <t>6,26%</t>
         </is>
       </c>
     </row>
@@ -710,7 +710,7 @@
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>4,59; 8,22</t>
+          <t>4,69; 8,4</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
@@ -725,7 +725,7 @@
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>4,59; 8,22</t>
+          <t>4,69; 8,4</t>
         </is>
       </c>
     </row>
@@ -767,7 +767,7 @@
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>22,02%</t>
+          <t>20,7%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
@@ -782,7 +782,7 @@
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>22,02%</t>
+          <t>20,7%</t>
         </is>
       </c>
     </row>
@@ -820,7 +820,7 @@
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>19,91; 24,45</t>
+          <t>16,88; 23,54</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
@@ -835,7 +835,7 @@
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>19,91; 24,45</t>
+          <t>16,88; 23,54</t>
         </is>
       </c>
     </row>
@@ -877,7 +877,7 @@
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>48,67%</t>
+          <t>48,62%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
@@ -892,7 +892,7 @@
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>48,67%</t>
+          <t>48,62%</t>
         </is>
       </c>
     </row>
@@ -930,7 +930,7 @@
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>44,34; 52,92</t>
+          <t>44,39; 52,89</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
@@ -945,7 +945,7 @@
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>44,34; 52,92</t>
+          <t>44,39; 52,89</t>
         </is>
       </c>
     </row>
@@ -987,7 +987,7 @@
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>23,85%</t>
+          <t>23,16%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
@@ -1002,7 +1002,7 @@
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>23,85%</t>
+          <t>23,16%</t>
         </is>
       </c>
     </row>
@@ -1040,7 +1040,7 @@
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>22,16; 25,57</t>
+          <t>20,5; 25,13</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
@@ -1055,7 +1055,7 @@
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>22,16; 25,57</t>
+          <t>20,5; 25,13</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/P42C_R-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/P42C_R-Estudios-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -700,32 +701,32 @@
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>10,62; 15,08</t>
+          <t>10,88; 15,08</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>2,31; 5,4</t>
+          <t>2,32; 5,59</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>4,69; 8,4</t>
+          <t>4,56; 8,89</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>10,62; 15,08</t>
+          <t>10,88; 15,08</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>2,31; 5,4</t>
+          <t>2,32; 5,59</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>4,69; 8,4</t>
+          <t>4,56; 8,89</t>
         </is>
       </c>
     </row>
@@ -810,32 +811,32 @@
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>23,12; 28,04</t>
+          <t>22,89; 28,09</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>12,57; 16,14</t>
+          <t>12,43; 16,09</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>16,88; 23,54</t>
+          <t>16,93; 23,42</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>23,12; 28,04</t>
+          <t>22,89; 28,09</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>12,57; 16,14</t>
+          <t>12,43; 16,09</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>16,88; 23,54</t>
+          <t>16,93; 23,42</t>
         </is>
       </c>
     </row>
@@ -920,32 +921,32 @@
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>40,68; 50,72</t>
+          <t>40,65; 51,2</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>32,29; 41,41</t>
+          <t>32,56; 41,23</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>44,39; 52,89</t>
+          <t>44,05; 52,8</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>40,68; 50,72</t>
+          <t>40,65; 51,2</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>32,29; 41,41</t>
+          <t>32,56; 41,23</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>44,39; 52,89</t>
+          <t>44,05; 52,8</t>
         </is>
       </c>
     </row>
@@ -1030,7 +1031,7 @@
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>22,35; 25,77</t>
+          <t>22,3; 25,65</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
@@ -1040,12 +1041,12 @@
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>20,5; 25,13</t>
+          <t>20,37; 25,12</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>22,35; 25,77</t>
+          <t>22,3; 25,65</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
@@ -1055,7 +1056,7 @@
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>20,5; 25,13</t>
+          <t>20,37; 25,12</t>
         </is>
       </c>
     </row>
@@ -1079,4 +1080,799 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:K16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población cuya última consulta ginecológica fue en un centro privado</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>Primarios</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>114</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>47</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>114</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>47</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>123619</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>24976</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>27075</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>123619</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>24976</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>27075</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>105636; 146425</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>16043; 38685</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>19715; 38467</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>105636; 146425</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>16043; 38685</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>19715; 38467</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>Secundarios</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>311</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>212</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>363</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>311</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>212</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>363</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>346959</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>226350</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>243778</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>346959</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>226350</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>243778</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>311976; 382756</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>197814; 256159</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>199406; 275856</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>311976; 382756</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>197814; 256159</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>199406; 275856</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Universitarios</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>162</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>169</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>299</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>162</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>169</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>299</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>184152</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>176779</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>195146</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>184152</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>176779</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>195146</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>163862; 206405</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>156926; 198690</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>176799; 211935</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>163862; 206405</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>156926; 198690</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>176799; 211935</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>587</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>403</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>709</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>587</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>403</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>709</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>654730</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>428105</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>465999</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>654730</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>428105</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>465999</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>610321; 702000</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>391241; 467917</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>409851; 505398</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>610321; 702000</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>391241; 467917</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>409851; 505398</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="8">
+    <mergeCell ref="C1:E1"/>
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="F1:H1"/>
+    <mergeCell ref="I1:K1"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="A13:A15"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>